--- a/src/main/resources/ru/avem/kspemstator/app/protocol.xlsx
+++ b/src/main/resources/ru/avem/kspemstator/app/protocol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t xml:space="preserve">Испытательное оборудование</t>
   </si>
@@ -67,28 +67,25 @@
     <t xml:space="preserve">Объект испытания</t>
   </si>
   <si>
+    <t xml:space="preserve">Марка стали</t>
+  </si>
+  <si>
     <t xml:space="preserve">Тип</t>
   </si>
   <si>
-    <t xml:space="preserve">Наружный д, мм</t>
+    <t xml:space="preserve">Мощность, кВт</t>
   </si>
   <si>
-    <t xml:space="preserve">Внутренний д, мм</t>
+    <t xml:space="preserve">Частота, об/мин</t>
   </si>
   <si>
-    <t xml:space="preserve">Длина железа, мм</t>
+    <t xml:space="preserve">Плотность, кг/м³</t>
   </si>
   <si>
-    <t xml:space="preserve">Высота спинки, мм</t>
+    <t xml:space="preserve">Потери, Вт/кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Материал станины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип изоляции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марка</t>
+    <t xml:space="preserve">Напряженность, А/м</t>
   </si>
   <si>
     <t xml:space="preserve">#101#</t>
@@ -100,31 +97,7 @@
     <t xml:space="preserve">#103#</t>
   </si>
   <si>
-    <t xml:space="preserve">#104#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#106#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#107#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#108#</t>
-  </si>
-  <si>
     <t xml:space="preserve">#109#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марка стали</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плотность, кг/м³</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Потери, Вт/кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Напряженность, А/м</t>
   </si>
   <si>
     <t xml:space="preserve">#111#</t>
@@ -137,6 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">Результат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ut, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pt, Вт</t>
   </si>
   <si>
     <t xml:space="preserve">Фактическая Bf, Тл</t>
@@ -170,6 +152,15 @@
     <t xml:space="preserve">Hf, А/м</t>
   </si>
   <si>
+    <t xml:space="preserve">#116#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#117#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#118#</t>
+  </si>
+  <si>
     <t xml:space="preserve">#119#</t>
   </si>
   <si>
@@ -182,31 +173,13 @@
     <t xml:space="preserve">#122#</t>
   </si>
   <si>
-    <t xml:space="preserve">It, A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ut, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pt, Вт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#116#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#117#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#118#</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заключение:</t>
   </si>
   <si>
-    <t xml:space="preserve">#POS1#</t>
+    <t xml:space="preserve">Испытатель:</t>
   </si>
   <si>
-    <t xml:space="preserve">#POS1NAME#</t>
+    <t xml:space="preserve">#104#</t>
   </si>
   <si>
     <t xml:space="preserve">дата</t>
@@ -343,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,11 +401,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,6 +415,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -475,9 +452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>766080</xdr:colOff>
+      <xdr:colOff>765720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -491,7 +468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10914120" y="37440"/>
-          <a:ext cx="676080" cy="677520"/>
+          <a:ext cx="675720" cy="677160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,7 +491,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5832,8 +5809,10 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -6856,28 +6835,26 @@
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -7898,28 +7875,26 @@
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="0"/>
+      <c r="E14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="0"/>
@@ -10979,15 +10954,15 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="17" t="s">
-        <v>31</v>
+      <c r="A17" s="17" t="s">
+        <v>29</v>
       </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="19"/>
       <c r="M17" s="7"/>
       <c r="N17" s="0"/>
@@ -12003,22 +11978,28 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="18" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="F18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="0"/>
       <c r="M18" s="2"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
@@ -13033,22 +13014,28 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="0"/>
       <c r="M19" s="7"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
@@ -14064,13 +14051,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
       <c r="M20" s="7"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
@@ -16107,16 +16094,16 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18" t="s">
-        <v>38</v>
+      <c r="A22" s="7" t="s">
+        <v>44</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="M22" s="7"/>
@@ -17133,25 +17120,17 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
-      <c r="M23" s="21"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
       <c r="P23" s="0"/>
@@ -18165,22 +18144,14 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="M24" s="4"/>
@@ -19197,19 +19168,14 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="M25" s="4"/>
@@ -20226,19 +20192,14 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="M26" s="4"/>
@@ -21255,12 +21216,22 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="A27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="M27" s="4"/>
@@ -22293,55 +22264,53 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="M32" s="2"/>
@@ -22350,34 +22319,26 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M35" s="7"/>
@@ -22720,14 +22681,14 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
